--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090670.029884497</v>
+        <v>-1092557.611400899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9942319242821</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>24.60526737367654</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>201.3302879382938</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.2363855806324</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>167.3719714690193</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>74.53436060286491</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>163.0793702451207</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>318.6366060526028</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>87.35915619339045</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>50.09791697323062</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>102.69516235643</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>22.71958750778575</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.9653260821521</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>96.06414922293632</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>131.541627774562</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>164.1396300180186</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>24.77826559155619</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>27.07419625387121</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>227.7649036845923</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>145.8490561337604</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.09720239620631</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>59.74564759222618</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965511</v>
+        <v>19.13151019008604</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437388</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897889</v>
+        <v>93.71057173897876</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523556</v>
+        <v>54.76109577523544</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>104.5392735477898</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329079</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634767</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898711</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857163</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692845</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329052</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1916.245359491378</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1547.282842550966</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1189.017143944216</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>803.2288913459713</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>796.2833905967678</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.295285590266</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2165.054910560866</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.245359491378</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047577</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2484.78910558324</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2153.726218239669</v>
+        <v>2296.880316419432</v>
       </c>
       <c r="W5" t="n">
-        <v>2153.726218239669</v>
+        <v>2296.880316419432</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.726218239669</v>
+        <v>1923.414558158352</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1533.27522618254</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.346854164887</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C7" t="n">
-        <v>279.346854164887</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D7" t="n">
-        <v>129.2302147525512</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>129.2302147525512</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>563.4023475952011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1667.156396867425</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1667.156396867425</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2335.244162608263</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2335.244162608263</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843236</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1667.156396867425</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4899,25 +4899,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782191</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,61 +5015,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514065</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845905</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864551</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528583</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183169</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.0220331715246</v>
+        <v>879.2482765610113</v>
       </c>
       <c r="C13" t="n">
-        <v>565.0858502436178</v>
+        <v>710.3120936331044</v>
       </c>
       <c r="D13" t="n">
-        <v>414.969210831282</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>267.0561172488889</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>120.1661697509785</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>120.1661697509785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799359</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471183</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,46 +5267,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126627</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790658</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093317</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.259996875526</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557898</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557898</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557898</v>
+        <v>964.1357418247831</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771457</v>
+        <v>675.0071030383413</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771457</v>
+        <v>675.0071030383413</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.787631771457</v>
+        <v>675.0071030383413</v>
       </c>
       <c r="X16" t="n">
-        <v>1112.753137606874</v>
+        <v>675.0071030383413</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.9605584633442</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>822.9089152986055</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1333.118664479096</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1333.118664479096</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>1333.118664479096</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768803</v>
+        <v>1043.701494442136</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>1043.701494442136</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>822.9089152986055</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020475</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300437</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918914</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>738.7219969042611</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>569.7858139763542</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>569.7858139763542</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>421.8727203939611</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>274.9827728960507</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>274.9827728960507</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>124.5647644439941</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771462</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771462</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345009</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617345009</v>
+        <v>929.7860569443443</v>
       </c>
       <c r="Y22" t="n">
-        <v>920.3704617345009</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6075,13 +6075,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.9573788353329</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768803</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>615.749957978863</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.9573788353329</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6312,19 +6312,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1438.567131575855</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1438.567131575855</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1438.567131575855</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1438.567131575855</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1183.882643369968</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>894.4654733330079</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>894.4654733330079</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>894.4654733330078</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,61 +6449,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>567.5935089039623</v>
+        <v>583.6915747573003</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574264</v>
+        <v>470.5162571107642</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264616</v>
+        <v>451.1914993430005</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264616</v>
+        <v>451.1914993430005</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>360.0624171264612</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>247.6479607276529</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667518</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962064</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.78727497015</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1479.41950146508</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1280.495878540564</v>
       </c>
       <c r="W31" t="n">
-        <v>1030.741507931637</v>
+        <v>1046.839573784974</v>
       </c>
       <c r="X31" t="n">
-        <v>858.5128223149902</v>
+        <v>874.610888168328</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.481108452831</v>
+        <v>709.5791743061689</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
         <v>2123.441607278215</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7257,7 +7257,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
         <v>1514.038914395485</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860497</v>
@@ -7345,22 +7345,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7400,61 +7400,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514072</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207827</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.85457301429</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.56127523126</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141864</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465297</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121727</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851612</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614721</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.538293612648</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636242</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O42" t="n">
         <v>2123.441607278215</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7731,16 +7731,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>199.7396287231205</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298972</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978733</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.023701673585</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776774</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445227</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>126.1942408597504</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>99.9554839014512</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>129.6455061661008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>87.0430255775328</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>57.40793104037061</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>200.931389797481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>83.34504921040076</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>24.37273963923568</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>21.39776496486741</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>57.51827062200604</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>50.21870481156666</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>14.74113413690327</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.28070619956895</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801193</v>
+        <v>91.2307060180118</v>
       </c>
       <c r="F31" t="n">
-        <v>90.217791394374</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>126.780468160244</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26314,31 +26314,31 @@
         <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
+        <v>156411.6238950836</v>
+      </c>
+      <c r="G2" t="n">
         <v>156411.6238950835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>156411.6238950834</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381078</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
@@ -26350,7 +26350,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.237460537595325e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284592</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086664</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284587</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106732</v>
+        <v>40339.23010106735</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281914</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002533</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-674251.4710916217</v>
       </c>
       <c r="C6" t="n">
-        <v>-84283.59187707724</v>
+        <v>-84283.59187707718</v>
       </c>
       <c r="D6" t="n">
-        <v>-84283.59187707724</v>
+        <v>-84283.59187707721</v>
       </c>
       <c r="E6" t="n">
-        <v>-482910.3461174001</v>
+        <v>-483007.8052433711</v>
       </c>
       <c r="F6" t="n">
-        <v>42249.69035949616</v>
+        <v>42152.231233524</v>
       </c>
       <c r="G6" t="n">
-        <v>42249.69035949607</v>
+        <v>42152.23123352273</v>
       </c>
       <c r="H6" t="n">
-        <v>42249.69035949619</v>
+        <v>42152.23123352398</v>
       </c>
       <c r="I6" t="n">
-        <v>42249.69035949609</v>
+        <v>42152.23123352397</v>
       </c>
       <c r="J6" t="n">
-        <v>-134173.5288330968</v>
+        <v>-134270.9879590689</v>
       </c>
       <c r="K6" t="n">
-        <v>-18401.18899602814</v>
+        <v>-18419.68273396253</v>
       </c>
       <c r="L6" t="n">
         <v>11556.94652377344</v>
       </c>
       <c r="M6" t="n">
-        <v>-112901.161909197</v>
+        <v>-112901.1619091971</v>
       </c>
       <c r="N6" t="n">
-        <v>21899.85332464012</v>
+        <v>21899.85332464015</v>
       </c>
       <c r="O6" t="n">
-        <v>21899.85332464018</v>
+        <v>21899.85332464006</v>
       </c>
       <c r="P6" t="n">
-        <v>-22262.75197820569</v>
+        <v>-22262.75197820574</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054540988</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054540988</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541009</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540996</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.9286335010833</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285573</v>
+        <v>55.20325662855733</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.789938096512856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29.87313520113517</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>44.6532749170199</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.19271039829715</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>40.98778192765687</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>160.3802870011156</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>70.88668742006634</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>55.50528310697408</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0464355680802</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>163.8650113148989</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>117.1489041253972</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>43.73880029013912</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.294324647460598e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.009738391246601e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3.922195901395753e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964072</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443614</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444942</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041484</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304435</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927181</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540881</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647493</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104643</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386724</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127059</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215732</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.416877562298</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724842</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813458</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710954</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677462</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361484</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196122</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171317</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469071</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.387743223569</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337664</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351808</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642279</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714612</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248611</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778055994</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642231</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005181</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296095</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507427</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,13 +36920,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412276</v>
+        <v>67.71102679412289</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043199</v>
+        <v>94.42895660043212</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303326</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109067</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081114</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951467</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.606025510912</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502045</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349793</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005176</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504659</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980125</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187852</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315244</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.090320520923</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
